--- a/DATA/Protest-Query.xlsx
+++ b/DATA/Protest-Query.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2022\Sem 1\ELEN4002 Capstone Project\Code\Team-Riot\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668ADDE8-0AA1-403E-99B6-FA174AE0C9E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891CCC06-C564-4297-920F-992F64511E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{C53576D5-AA90-456F-BE37-26B46836C21A}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C53576D5-AA90-456F-BE37-26B46836C21A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>University</t>
   </si>
@@ -131,9 +131,6 @@
     <t>burning</t>
   </si>
   <si>
-    <t>fees</t>
-  </si>
-  <si>
     <t>must fall</t>
   </si>
   <si>
@@ -206,9 +203,6 @@
     <t>picket</t>
   </si>
   <si>
-    <t>gather</t>
-  </si>
-  <si>
     <t>dance</t>
   </si>
   <si>
@@ -222,6 +216,18 @@
   </si>
   <si>
     <t>amandla</t>
+  </si>
+  <si>
+    <t>gathering</t>
+  </si>
+  <si>
+    <t>mass%meeting</t>
+  </si>
+  <si>
+    <t>free%education</t>
+  </si>
+  <si>
+    <t>fee</t>
   </si>
 </sst>
 </file>
@@ -582,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B80DAE-5665-4A1A-90FE-B069781CF2D5}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:B16"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,7 +627,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -635,7 +641,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -649,7 +655,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -663,12 +669,12 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -677,12 +683,12 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -690,13 +696,10 @@
       <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -704,13 +707,10 @@
       <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -718,40 +718,49 @@
       <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -759,7 +768,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -767,7 +776,7 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -775,66 +784,71 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
         <v>61</v>
       </c>
     </row>

--- a/DATA/Protest-Query.xlsx
+++ b/DATA/Protest-Query.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2022\Sem 1\ELEN4002 Capstone Project\Code\Team-Riot\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891CCC06-C564-4297-920F-992F64511E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A0CB88-452F-4E53-99EB-BDFDAB775D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C53576D5-AA90-456F-BE37-26B46836C21A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>University</t>
   </si>
@@ -131,9 +131,6 @@
     <t>burning</t>
   </si>
   <si>
-    <t>must fall</t>
-  </si>
-  <si>
     <t>education</t>
   </si>
   <si>
@@ -228,6 +225,12 @@
   </si>
   <si>
     <t>fee</t>
+  </si>
+  <si>
+    <t>must%fall</t>
+  </si>
+  <si>
+    <t>mustfall</t>
   </si>
 </sst>
 </file>
@@ -591,7 +594,7 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +630,7 @@
         <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -641,7 +644,7 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -655,7 +658,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -669,12 +672,12 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -683,12 +686,12 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
         <v>11</v>
@@ -696,10 +699,13 @@
       <c r="C7" t="s">
         <v>27</v>
       </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -710,7 +716,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -721,46 +727,46 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -768,7 +774,7 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -776,7 +782,7 @@
         <v>20</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -784,72 +790,72 @@
         <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/DATA/Protest-Query.xlsx
+++ b/DATA/Protest-Query.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2022\Sem 1\ELEN4002 Capstone Project\Code\Team-Riot\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A0CB88-452F-4E53-99EB-BDFDAB775D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3DDCA7-D5BB-4528-91DD-33D715F8780B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C53576D5-AA90-456F-BE37-26B46836C21A}"/>
   </bookViews>
@@ -36,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
-  <si>
-    <t>University</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>Student</t>
   </si>
   <si>
-    <t>Universities</t>
-  </si>
-  <si>
     <t>List of Universities</t>
   </si>
   <si>
@@ -128,9 +122,6 @@
     <t>Other</t>
   </si>
   <si>
-    <t>burning</t>
-  </si>
-  <si>
     <t>education</t>
   </si>
   <si>
@@ -143,9 +134,6 @@
     <t>lecture</t>
   </si>
   <si>
-    <t>lecturer</t>
-  </si>
-  <si>
     <t>res</t>
   </si>
   <si>
@@ -164,9 +152,6 @@
     <t>accommodation</t>
   </si>
   <si>
-    <t>barricade</t>
-  </si>
-  <si>
     <t>struggle</t>
   </si>
   <si>
@@ -231,6 +216,129 @@
   </si>
   <si>
     <t>mustfall</t>
+  </si>
+  <si>
+    <t>shut%down</t>
+  </si>
+  <si>
+    <t>stormed</t>
+  </si>
+  <si>
+    <t>court</t>
+  </si>
+  <si>
+    <t>abuse</t>
+  </si>
+  <si>
+    <t>hostel</t>
+  </si>
+  <si>
+    <t>boarding%house</t>
+  </si>
+  <si>
+    <t>bomb</t>
+  </si>
+  <si>
+    <t>police</t>
+  </si>
+  <si>
+    <t>unhappy</t>
+  </si>
+  <si>
+    <t>demand</t>
+  </si>
+  <si>
+    <t>clash</t>
+  </si>
+  <si>
+    <t>violence</t>
+  </si>
+  <si>
+    <t>grenade</t>
+  </si>
+  <si>
+    <t>smash</t>
+  </si>
+  <si>
+    <t>stoned</t>
+  </si>
+  <si>
+    <t>security</t>
+  </si>
+  <si>
+    <t>barricad</t>
+  </si>
+  <si>
+    <t>SAPS</t>
+  </si>
+  <si>
+    <t>battle</t>
+  </si>
+  <si>
+    <t>rubber%bulet</t>
+  </si>
+  <si>
+    <t>tear%gas</t>
+  </si>
+  <si>
+    <t>arrest</t>
+  </si>
+  <si>
+    <t>SU</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>RU</t>
+  </si>
+  <si>
+    <t>VUT</t>
+  </si>
+  <si>
+    <t>WSU</t>
+  </si>
+  <si>
+    <t>TUT</t>
+  </si>
+  <si>
+    <t>UFH</t>
+  </si>
+  <si>
+    <t>SMU</t>
+  </si>
+  <si>
+    <t>Potch</t>
+  </si>
+  <si>
+    <t>varsit</t>
+  </si>
+  <si>
+    <t>costs</t>
+  </si>
+  <si>
+    <t>policy</t>
+  </si>
+  <si>
+    <t>results</t>
+  </si>
+  <si>
+    <t>permission</t>
+  </si>
+  <si>
+    <t>crowd</t>
+  </si>
+  <si>
+    <t>angry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEHAWU </t>
+  </si>
+  <si>
+    <t>gun</t>
+  </si>
+  <si>
+    <t>Universit</t>
   </si>
 </sst>
 </file>
@@ -591,10 +699,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19B80DAE-5665-4A1A-90FE-B069781CF2D5}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -607,27 +715,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>63</v>
       </c>
       <c r="D2" t="s">
         <v>62</v>
@@ -635,230 +743,379 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>66</v>
+      </c>
+      <c r="D9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>45</v>
+      </c>
+      <c r="D11" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>52</v>
+      </c>
+      <c r="D12" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>70</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>21</v>
+        <v>88</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
       <c r="C17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
       <c r="C18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>14</v>
+      </c>
       <c r="C19" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
       <c r="C20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>83</v>
+      </c>
       <c r="C21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
       <c r="C22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>85</v>
+      </c>
       <c r="C23" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
       <c r="C24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
       <c r="C25" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
         <v>60</v>
       </c>
     </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C2:C48">
+    <sortCondition ref="C36:C48"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/DATA/Protest-Query.xlsx
+++ b/DATA/Protest-Query.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2022\Sem 1\ELEN4002 Capstone Project\Code\Team-Riot\DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2022\Sem 1\ELEN4002 Capstone Project\Code\New Team-riot\Team-Riot\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3DDCA7-D5BB-4528-91DD-33D715F8780B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC90221-ADDA-405A-9566-56D8767AE3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C53576D5-AA90-456F-BE37-26B46836C21A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{C53576D5-AA90-456F-BE37-26B46836C21A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>Student</t>
   </si>
@@ -95,9 +95,6 @@
     <t>NMMU</t>
   </si>
   <si>
-    <t>CUT</t>
-  </si>
-  <si>
     <t>demonstration</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
     <t>lecture</t>
   </si>
   <si>
-    <t>res</t>
-  </si>
-  <si>
     <t>campus</t>
   </si>
   <si>
@@ -284,15 +278,6 @@
     <t>arrest</t>
   </si>
   <si>
-    <t>SU</t>
-  </si>
-  <si>
-    <t>UP</t>
-  </si>
-  <si>
-    <t>RU</t>
-  </si>
-  <si>
     <t>VUT</t>
   </si>
   <si>
@@ -312,9 +297,6 @@
   </si>
   <si>
     <t>varsit</t>
-  </si>
-  <si>
-    <t>costs</t>
   </si>
   <si>
     <t>policy</t>
@@ -702,7 +684,7 @@
   <dimension ref="A1:D48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,392 +706,374 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>85</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>94</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>83</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>91</v>
-      </c>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>88</v>
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
-        <v>85</v>
-      </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>86</v>
-      </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
